--- a/CM_TestData_LOGIN_LOGOUT_21C.xlsx
+++ b/CM_TestData_LOGIN_LOGOUT_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Cash Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE9B1AC-24E0-4293-81B8-5A5AB4CC5FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326E969-E046-45C3-AF6F-0CDAF76E8381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>UserName</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
-  </si>
-  <si>
-    <t>AUTOMATION_TESTING</t>
-  </si>
-  <si>
-    <t>Oracle123</t>
   </si>
 </sst>
 </file>
@@ -474,19 +465,19 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.1796875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.81640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.54296875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="12" width="9.7265625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="44.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.77734375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="12" width="9.77734375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -506,23 +497,14 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{AA6BA815-F87E-42DF-B350-878B50A1EF62}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -534,15 +516,15 @@
       <selection activeCell="A3" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
